--- a/test.xlsx
+++ b/test.xlsx
@@ -399,16 +399,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C7"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="7" spans="3:3">
-      <c r="C7" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -21,7 +21,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>テスト</t>
+    <t>テストtest</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>

--- a/test.xlsx
+++ b/test.xlsx
@@ -21,7 +21,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>テストtest</t>
+    <t>テストtesttesttest</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -401,7 +401,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <sheetData>
